--- a/ff/static/assets/datasets/leetcode_dataset.xlsx
+++ b/ff/static/assets/datasets/leetcode_dataset.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjw/Development/tears/fluffy-fortnight/ff/static/assets/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B7A8F2-8E24-4640-BB87-E5ADB5B292A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891C3C95-6510-4648-AE56-80823C3B2D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13420" yWindow="1160" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - leetcode_dataset - lc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31841,13 +31854,13 @@
   </sheetPr>
   <dimension ref="A1:G1826"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1168" workbookViewId="0">
-      <selection activeCell="B1176" sqref="B1176"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
